--- a/Time Series Analysis/Univariate Time Series/fbprophet/Data Practice/ramalan.xlsx
+++ b/Time Series Analysis/Univariate Time Series/fbprophet/Data Practice/ramalan.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>17929</v>
+        <v>17899</v>
       </c>
       <c r="C2">
-        <v>84.4866591164072</v>
+        <v>84.37867679959356</v>
       </c>
       <c r="D2">
-        <v>55.86580473803084</v>
+        <v>56.14804513025286</v>
       </c>
       <c r="E2">
-        <v>113.6177062602976</v>
+        <v>113.6274254478099</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -429,16 +429,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>17957</v>
+        <v>17930</v>
       </c>
       <c r="C3">
-        <v>77.02783544011291</v>
+        <v>77.78682608536823</v>
       </c>
       <c r="D3">
-        <v>50.17822536283774</v>
+        <v>52.39484685278258</v>
       </c>
       <c r="E3">
-        <v>107.6421550096216</v>
+        <v>106.2363027486396</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -446,16 +446,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>17988</v>
+        <v>17958</v>
       </c>
       <c r="C4">
-        <v>110.6371543101781</v>
+        <v>109.9945410758251</v>
       </c>
       <c r="D4">
-        <v>81.65569980737945</v>
+        <v>81.35232004915414</v>
       </c>
       <c r="E4">
-        <v>136.6820388281638</v>
+        <v>139.5620905938661</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -463,16 +463,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>18018</v>
+        <v>17989</v>
       </c>
       <c r="C5">
-        <v>108.0577079437238</v>
+        <v>107.4469032795397</v>
       </c>
       <c r="D5">
-        <v>78.10143577155786</v>
+        <v>79.82233820086985</v>
       </c>
       <c r="E5">
-        <v>138.1561703707166</v>
+        <v>136.3914463910936</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -480,16 +480,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>18049</v>
+        <v>18019</v>
       </c>
       <c r="C6">
-        <v>111.4611916451233</v>
+        <v>110.934953092326</v>
       </c>
       <c r="D6">
-        <v>82.83615018113599</v>
+        <v>84.24337858887471</v>
       </c>
       <c r="E6">
-        <v>139.8201804921023</v>
+        <v>139.5267498812234</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -497,16 +497,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>18079</v>
+        <v>18050</v>
       </c>
       <c r="C7">
-        <v>151.4681421319372</v>
+        <v>150.9212854609728</v>
       </c>
       <c r="D7">
-        <v>122.8759258641862</v>
+        <v>123.6449326764702</v>
       </c>
       <c r="E7">
-        <v>178.4100752520944</v>
+        <v>180.6843839694319</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -514,16 +514,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>18110</v>
+        <v>18080</v>
       </c>
       <c r="C8">
-        <v>190.2617120653554</v>
+        <v>189.7217647205442</v>
       </c>
       <c r="D8">
-        <v>161.432739568539</v>
+        <v>159.7161109860896</v>
       </c>
       <c r="E8">
-        <v>219.1079805454648</v>
+        <v>217.6152954156526</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -531,16 +531,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>18141</v>
+        <v>18111</v>
       </c>
       <c r="C9">
-        <v>189.6535875238078</v>
+        <v>189.2051725650354</v>
       </c>
       <c r="D9">
-        <v>159.5562667278248</v>
+        <v>160.2488071565584</v>
       </c>
       <c r="E9">
-        <v>217.6305972659093</v>
+        <v>217.198417088986</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -548,16 +548,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>18171</v>
+        <v>18142</v>
       </c>
       <c r="C10">
-        <v>140.2399581133292</v>
+        <v>139.7416274573009</v>
       </c>
       <c r="D10">
-        <v>113.628332490444</v>
+        <v>107.7723772440167</v>
       </c>
       <c r="E10">
-        <v>168.5584386439766</v>
+        <v>167.3447554803741</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -565,16 +565,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>18202</v>
+        <v>18172</v>
       </c>
       <c r="C11">
-        <v>104.1109756396694</v>
+        <v>103.5496023460318</v>
       </c>
       <c r="D11">
-        <v>76.10830504651936</v>
+        <v>74.49082909197183</v>
       </c>
       <c r="E11">
-        <v>133.4371813043125</v>
+        <v>131.5995188693913</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -582,16 +582,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>18232</v>
+        <v>18203</v>
       </c>
       <c r="C12">
-        <v>69.38612245460321</v>
+        <v>68.7622036038388</v>
       </c>
       <c r="D12">
-        <v>39.08376402388101</v>
+        <v>41.68097240086083</v>
       </c>
       <c r="E12">
-        <v>96.11226493568185</v>
+        <v>97.05540130940236</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -599,16 +599,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>18263</v>
+        <v>18233</v>
       </c>
       <c r="C13">
-        <v>97.71280337145531</v>
+        <v>97.26755083819374</v>
       </c>
       <c r="D13">
-        <v>69.22071599454566</v>
+        <v>67.26817948862153</v>
       </c>
       <c r="E13">
-        <v>127.567713419964</v>
+        <v>124.5302125569396</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -616,16 +616,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>18294</v>
+        <v>18264</v>
       </c>
       <c r="C14">
-        <v>109.5088355483451</v>
+        <v>109.2452227037454</v>
       </c>
       <c r="D14">
-        <v>81.81047820083826</v>
+        <v>79.78640113769227</v>
       </c>
       <c r="E14">
-        <v>139.5636486193692</v>
+        <v>139.796457495171</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -633,16 +633,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>18322</v>
+        <v>18295</v>
       </c>
       <c r="C15">
-        <v>101.414910007334</v>
+        <v>102.1504433035061</v>
       </c>
       <c r="D15">
-        <v>72.57301549625085</v>
+        <v>75.11469390860292</v>
       </c>
       <c r="E15">
-        <v>130.5264046056359</v>
+        <v>131.5642630250612</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -650,16 +650,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>18353</v>
+        <v>18323</v>
       </c>
       <c r="C16">
-        <v>137.1707669913103</v>
+        <v>136.8763407949553</v>
       </c>
       <c r="D16">
-        <v>108.3429096870747</v>
+        <v>106.8700271355701</v>
       </c>
       <c r="E16">
-        <v>164.1659767074579</v>
+        <v>165.0735226167779</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -667,16 +667,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>18383</v>
+        <v>18354</v>
       </c>
       <c r="C17">
-        <v>132.6629199688475</v>
+        <v>132.231680503645</v>
       </c>
       <c r="D17">
-        <v>103.4236165630802</v>
+        <v>102.6547000887982</v>
       </c>
       <c r="E17">
-        <v>160.5840762522948</v>
+        <v>160.7709424531198</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -684,16 +684,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>18414</v>
+        <v>18384</v>
       </c>
       <c r="C18">
-        <v>137.7486148725035</v>
+        <v>137.2593168112765</v>
       </c>
       <c r="D18">
-        <v>108.332728486344</v>
+        <v>109.4566483204206</v>
       </c>
       <c r="E18">
-        <v>166.2510527545975</v>
+        <v>165.3499218132596</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -701,16 +701,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>18444</v>
+        <v>18415</v>
       </c>
       <c r="C19">
-        <v>176.4469989368328</v>
+        <v>175.9761111518665</v>
       </c>
       <c r="D19">
-        <v>147.2561027200314</v>
+        <v>146.9484485687895</v>
       </c>
       <c r="E19">
-        <v>206.9839732225396</v>
+        <v>204.6596061314801</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -718,16 +718,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>18475</v>
+        <v>18445</v>
       </c>
       <c r="C20">
-        <v>215.8955509039258</v>
+        <v>215.6307373412981</v>
       </c>
       <c r="D20">
-        <v>187.299572658743</v>
+        <v>186.106714211527</v>
       </c>
       <c r="E20">
-        <v>244.1979746421518</v>
+        <v>240.4660416675547</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -735,16 +735,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>18506</v>
+        <v>18476</v>
       </c>
       <c r="C21">
-        <v>214.9548747985764</v>
+        <v>214.6165693346613</v>
       </c>
       <c r="D21">
-        <v>189.8719034993392</v>
+        <v>187.4276133872393</v>
       </c>
       <c r="E21">
-        <v>244.1382307631019</v>
+        <v>244.7013357225875</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,16 +752,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>18536</v>
+        <v>18507</v>
       </c>
       <c r="C22">
-        <v>166.034816473808</v>
+        <v>165.6306426762613</v>
       </c>
       <c r="D22">
-        <v>134.8439797267851</v>
+        <v>135.3256214488344</v>
       </c>
       <c r="E22">
-        <v>193.5570845259259</v>
+        <v>193.7149810670203</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -769,16 +769,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>18567</v>
+        <v>18537</v>
       </c>
       <c r="C23">
-        <v>129.3878365577118</v>
+        <v>129.0446247534944</v>
       </c>
       <c r="D23">
-        <v>98.89674887215766</v>
+        <v>100.0910412272694</v>
       </c>
       <c r="E23">
-        <v>154.6981145499821</v>
+        <v>156.5877219656661</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -786,16 +786,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>18597</v>
+        <v>18568</v>
       </c>
       <c r="C24">
-        <v>95.53523611891796</v>
+        <v>95.18109197144047</v>
       </c>
       <c r="D24">
-        <v>66.45226007555425</v>
+        <v>68.34662415428915</v>
       </c>
       <c r="E24">
-        <v>124.1555213715075</v>
+        <v>123.7627176795317</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -803,16 +803,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>18628</v>
+        <v>18598</v>
       </c>
       <c r="C25">
-        <v>124.1656731309552</v>
+        <v>123.8295471136113</v>
       </c>
       <c r="D25">
-        <v>95.32762504966075</v>
+        <v>95.3335241084355</v>
       </c>
       <c r="E25">
-        <v>152.0617799017344</v>
+        <v>152.56371484453</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -820,16 +820,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>18659</v>
+        <v>18629</v>
       </c>
       <c r="C26">
-        <v>134.4968911002056</v>
+        <v>134.0769094365073</v>
       </c>
       <c r="D26">
-        <v>104.8905570768641</v>
+        <v>104.6614177537841</v>
       </c>
       <c r="E26">
-        <v>162.9541362679298</v>
+        <v>162.3425385722563</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -837,16 +837,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>18687</v>
+        <v>18660</v>
       </c>
       <c r="C27">
-        <v>125.8282182203695</v>
+        <v>126.5384095686987</v>
       </c>
       <c r="D27">
-        <v>95.6325070660739</v>
+        <v>98.33332913123863</v>
       </c>
       <c r="E27">
-        <v>155.1894754278009</v>
+        <v>156.7809921360014</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -854,16 +854,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>18718</v>
+        <v>18688</v>
       </c>
       <c r="C28">
-        <v>163.7071858216239</v>
+        <v>163.7570348430923</v>
       </c>
       <c r="D28">
-        <v>131.3180963714664</v>
+        <v>133.4513728341074</v>
       </c>
       <c r="E28">
-        <v>191.7899211140722</v>
+        <v>193.0223575421441</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -871,16 +871,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>18748</v>
+        <v>18719</v>
       </c>
       <c r="C29">
-        <v>157.2730918137234</v>
+        <v>157.0148041285066</v>
       </c>
       <c r="D29">
-        <v>127.2778435287846</v>
+        <v>128.9801986358345</v>
       </c>
       <c r="E29">
-        <v>184.9587132782119</v>
+        <v>185.8308040675652</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -888,16 +888,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>18779</v>
+        <v>18749</v>
       </c>
       <c r="C30">
-        <v>164.0486238824909</v>
+        <v>163.5924153332557</v>
       </c>
       <c r="D30">
-        <v>135.8936308461718</v>
+        <v>133.4993787213539</v>
       </c>
       <c r="E30">
-        <v>194.9144071496289</v>
+        <v>193.6193254204926</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -905,16 +905,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>18809</v>
+        <v>18780</v>
       </c>
       <c r="C31">
-        <v>201.4158155001512</v>
+        <v>201.0246824161433</v>
       </c>
       <c r="D31">
-        <v>172.767097093787</v>
+        <v>172.9303162324196</v>
       </c>
       <c r="E31">
-        <v>230.8106318727972</v>
+        <v>229.4733609405551</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -922,16 +922,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>18840</v>
+        <v>18810</v>
       </c>
       <c r="C32">
-        <v>241.5160724345805</v>
+        <v>241.5274486709505</v>
       </c>
       <c r="D32">
-        <v>212.4092510635767</v>
+        <v>214.1168201332619</v>
       </c>
       <c r="E32">
-        <v>268.4370374552645</v>
+        <v>272.088922094523</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -939,16 +939,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>18871</v>
+        <v>18841</v>
       </c>
       <c r="C33">
-        <v>240.2429287225872</v>
+        <v>240.0140609105844</v>
       </c>
       <c r="D33">
-        <v>213.4046367175057</v>
+        <v>212.9686753628556</v>
       </c>
       <c r="E33">
-        <v>268.3947622558439</v>
+        <v>269.6318230799216</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -956,16 +956,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>18901</v>
+        <v>18872</v>
       </c>
       <c r="C34">
-        <v>191.835108291778</v>
+        <v>191.5251074434372</v>
       </c>
       <c r="D34">
-        <v>165.6822141692379</v>
+        <v>162.3219092127693</v>
       </c>
       <c r="E34">
-        <v>221.61009206723</v>
+        <v>221.1296547096796</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -973,16 +973,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>18932</v>
+        <v>18902</v>
       </c>
       <c r="C35">
-        <v>154.6794514587622</v>
+        <v>154.5579318074057</v>
       </c>
       <c r="D35">
-        <v>128.424457777559</v>
+        <v>125.0629383587326</v>
       </c>
       <c r="E35">
-        <v>180.9597135644283</v>
+        <v>182.7767570175985</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -990,16 +990,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>18962</v>
+        <v>18933</v>
       </c>
       <c r="C36">
-        <v>121.7118800577506</v>
+        <v>121.627220565174</v>
       </c>
       <c r="D36">
-        <v>91.97163217906915</v>
+        <v>91.12348822196708</v>
       </c>
       <c r="E36">
-        <v>152.4199956915664</v>
+        <v>149.3307526416328</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1007,16 +1007,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>18993</v>
+        <v>18963</v>
       </c>
       <c r="C37">
-        <v>150.5962634931717</v>
+        <v>150.3618082210675</v>
       </c>
       <c r="D37">
-        <v>123.13341412167</v>
+        <v>124.3551345352453</v>
       </c>
       <c r="E37">
-        <v>178.786543162401</v>
+        <v>179.5796197551816</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1024,16 +1024,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>19024</v>
+        <v>18994</v>
       </c>
       <c r="C38">
-        <v>159.4514139167776</v>
+        <v>158.8747774229442</v>
       </c>
       <c r="D38">
-        <v>128.8749578520102</v>
+        <v>130.9040985036062</v>
       </c>
       <c r="E38">
-        <v>188.4999959855464</v>
+        <v>188.8017164720907</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1041,16 +1041,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>19053</v>
+        <v>19025</v>
       </c>
       <c r="C39">
-        <v>154.7700211508563</v>
+        <v>150.9520919595681</v>
       </c>
       <c r="D39">
-        <v>126.3481696588112</v>
+        <v>122.4143067401391</v>
       </c>
       <c r="E39">
-        <v>182.5398363556608</v>
+        <v>180.9775660375686</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1058,16 +1058,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>19084</v>
+        <v>19054</v>
       </c>
       <c r="C40">
-        <v>186.2112678910963</v>
+        <v>185.8721487732549</v>
       </c>
       <c r="D40">
-        <v>156.232553399219</v>
+        <v>157.6310116370807</v>
       </c>
       <c r="E40">
-        <v>215.219329529147</v>
+        <v>216.6960508430842</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1075,16 +1075,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>19114</v>
+        <v>19085</v>
       </c>
       <c r="C41">
-        <v>185.5610362064129</v>
+        <v>185.4193426446341</v>
       </c>
       <c r="D41">
-        <v>155.7505122889815</v>
+        <v>156.6604211526163</v>
       </c>
       <c r="E41">
-        <v>213.754852813259</v>
+        <v>213.8971094079794</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1092,16 +1092,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>19145</v>
+        <v>19115</v>
       </c>
       <c r="C42">
-        <v>187.2913678023658</v>
+        <v>187.379418104756</v>
       </c>
       <c r="D42">
-        <v>158.6384878309586</v>
+        <v>160.0780447590592</v>
       </c>
       <c r="E42">
-        <v>216.6389199023324</v>
+        <v>215.6645243190973</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1109,16 +1109,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>19175</v>
+        <v>19146</v>
       </c>
       <c r="C43">
-        <v>228.5835255295359</v>
+        <v>228.6196321125356</v>
       </c>
       <c r="D43">
-        <v>200.7102893266308</v>
+        <v>199.1639105313573</v>
       </c>
       <c r="E43">
-        <v>255.5613731063354</v>
+        <v>256.2038908015054</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1126,16 +1126,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>19206</v>
+        <v>19176</v>
       </c>
       <c r="C44">
-        <v>266.7188868459638</v>
+        <v>266.5601874356648</v>
       </c>
       <c r="D44">
-        <v>239.7697569729354</v>
+        <v>237.9501551716593</v>
       </c>
       <c r="E44">
-        <v>295.6635912750513</v>
+        <v>293.6852926324474</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1143,16 +1143,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>19237</v>
+        <v>19207</v>
       </c>
       <c r="C45">
-        <v>266.4426795093341</v>
+        <v>266.5386745415327</v>
       </c>
       <c r="D45">
-        <v>239.4087263392292</v>
+        <v>236.4852103171383</v>
       </c>
       <c r="E45">
-        <v>296.3270738908214</v>
+        <v>294.5637350502606</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1160,16 +1160,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>19267</v>
+        <v>19238</v>
       </c>
       <c r="C46">
-        <v>216.5542638163548</v>
+        <v>216.6169406996722</v>
       </c>
       <c r="D46">
-        <v>189.070559122175</v>
+        <v>189.8048345606166</v>
       </c>
       <c r="E46">
-        <v>244.9429608468436</v>
+        <v>245.2639462146192</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1177,16 +1177,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>19298</v>
+        <v>19268</v>
       </c>
       <c r="C47">
-        <v>180.9524955118881</v>
+        <v>180.8318470837487</v>
       </c>
       <c r="D47">
-        <v>150.7120089153146</v>
+        <v>151.887063523807</v>
       </c>
       <c r="E47">
-        <v>210.8809009260561</v>
+        <v>208.3119727430031</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1194,16 +1194,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>19328</v>
+        <v>19299</v>
       </c>
       <c r="C48">
-        <v>145.3696394908805</v>
+        <v>145.1309823110959</v>
       </c>
       <c r="D48">
-        <v>118.6500687954408</v>
+        <v>115.9315536207486</v>
       </c>
       <c r="E48">
-        <v>174.0974403082712</v>
+        <v>173.1639542451229</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1211,16 +1211,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>19359</v>
+        <v>19329</v>
       </c>
       <c r="C49">
-        <v>173.343186643248</v>
+        <v>173.4364417642889</v>
       </c>
       <c r="D49">
-        <v>144.2410321725481</v>
+        <v>145.5338124270183</v>
       </c>
       <c r="E49">
-        <v>202.5108672982135</v>
+        <v>200.8962017154617</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1228,16 +1228,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>19390</v>
+        <v>19360</v>
       </c>
       <c r="C50">
-        <v>186.5908577814939</v>
+        <v>187.1380753578458</v>
       </c>
       <c r="D50">
-        <v>158.5650829557669</v>
+        <v>159.0692149854774</v>
       </c>
       <c r="E50">
-        <v>215.4841333823864</v>
+        <v>215.3088279956261</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1245,16 +1245,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>19418</v>
+        <v>19391</v>
       </c>
       <c r="C51">
-        <v>179.1320417961189</v>
+        <v>180.5462251043909</v>
       </c>
       <c r="D51">
-        <v>151.8009221787545</v>
+        <v>155.1976780218451</v>
       </c>
       <c r="E51">
-        <v>207.4128545993871</v>
+        <v>210.5391729365399</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1262,16 +1262,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>19449</v>
+        <v>19419</v>
       </c>
       <c r="C52">
-        <v>212.7413691811374</v>
+        <v>212.7539405110414</v>
       </c>
       <c r="D52">
-        <v>181.8501315010579</v>
+        <v>182.7806285948463</v>
       </c>
       <c r="E52">
-        <v>242.2964958780327</v>
+        <v>240.5781787815605</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1279,16 +1279,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>19479</v>
+        <v>19450</v>
       </c>
       <c r="C53">
-        <v>210.1620701498705</v>
+        <v>210.2063032449471</v>
       </c>
       <c r="D53">
-        <v>179.5811452401383</v>
+        <v>182.3354471663878</v>
       </c>
       <c r="E53">
-        <v>238.9131856036658</v>
+        <v>241.284166573146</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1296,16 +1296,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>19510</v>
+        <v>19480</v>
       </c>
       <c r="C54">
-        <v>213.5657060976412</v>
+        <v>213.6943535708442</v>
       </c>
       <c r="D54">
-        <v>184.2335537633782</v>
+        <v>186.2345356040307</v>
       </c>
       <c r="E54">
-        <v>240.7841403003809</v>
+        <v>243.7685725370263</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1313,16 +1313,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>19540</v>
+        <v>19511</v>
       </c>
       <c r="C55">
-        <v>253.5728039196384</v>
+        <v>253.680686469689</v>
       </c>
       <c r="D55">
-        <v>224.8990560919326</v>
+        <v>222.859165692979</v>
       </c>
       <c r="E55">
-        <v>282.8577136280283</v>
+        <v>282.3790124991941</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1330,16 +1330,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>19571</v>
+        <v>19541</v>
       </c>
       <c r="C56">
-        <v>292.3665261060554</v>
+        <v>292.4811662707993</v>
       </c>
       <c r="D56">
-        <v>263.7438875970926</v>
+        <v>262.4935501577768</v>
       </c>
       <c r="E56">
-        <v>319.6947817345129</v>
+        <v>322.1663635337038</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1347,16 +1347,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>19602</v>
+        <v>19572</v>
       </c>
       <c r="C57">
-        <v>291.7585538175019</v>
+        <v>291.9645746748831</v>
       </c>
       <c r="D57">
-        <v>262.7747465760834</v>
+        <v>263.7152619269056</v>
       </c>
       <c r="E57">
-        <v>320.3879963201156</v>
+        <v>321.2168974005325</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1364,16 +1364,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>19632</v>
+        <v>19603</v>
       </c>
       <c r="C58">
-        <v>242.4666386012843</v>
+        <v>242.6252236248011</v>
       </c>
       <c r="D58">
-        <v>213.8213363746013</v>
+        <v>213.1670611046023</v>
       </c>
       <c r="E58">
-        <v>270.4787808308558</v>
+        <v>270.2772032733767</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1381,16 +1381,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>19663</v>
+        <v>19633</v>
       </c>
       <c r="C59">
-        <v>206.4634274616859</v>
+        <v>206.5533863112523</v>
       </c>
       <c r="D59">
-        <v>176.8714241996703</v>
+        <v>176.1212402488926</v>
       </c>
       <c r="E59">
-        <v>237.2205178610648</v>
+        <v>234.8982897554465</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1398,16 +1398,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>19693</v>
+        <v>19664</v>
       </c>
       <c r="C60">
-        <v>171.8602884534328</v>
+        <v>171.8901816080266</v>
       </c>
       <c r="D60">
-        <v>144.9049267192373</v>
+        <v>140.5033167802142</v>
       </c>
       <c r="E60">
-        <v>200.0926129059381</v>
+        <v>201.4055001596487</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1415,16 +1415,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>19724</v>
+        <v>19694</v>
       </c>
       <c r="C61">
-        <v>200.3127406863245</v>
+        <v>200.5157166220284</v>
       </c>
       <c r="D61">
-        <v>171.6782697257041</v>
+        <v>171.6306755564953</v>
       </c>
       <c r="E61">
-        <v>227.9641301887799</v>
+        <v>227.3924480200835</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1432,16 +1432,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>19755</v>
+        <v>19725</v>
       </c>
       <c r="C62">
-        <v>212.4224574508159</v>
+        <v>212.8036021896609</v>
       </c>
       <c r="D62">
-        <v>185.9358881534089</v>
+        <v>184.0609483340982</v>
       </c>
       <c r="E62">
-        <v>241.1339411933416</v>
+        <v>240.4534302520011</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1449,16 +1449,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>19783</v>
+        <v>19756</v>
       </c>
       <c r="C63">
-        <v>204.6118599244162</v>
+        <v>206.0190364915101</v>
       </c>
       <c r="D63">
-        <v>177.0093651144416</v>
+        <v>178.7373908163448</v>
       </c>
       <c r="E63">
-        <v>233.2314487293349</v>
+        <v>235.9800737748364</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1466,16 +1466,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>19814</v>
+        <v>19784</v>
       </c>
       <c r="C64">
-        <v>240.6814014960122</v>
+        <v>241.0251270042122</v>
       </c>
       <c r="D64">
-        <v>210.4789606607164</v>
+        <v>213.0512596543461</v>
       </c>
       <c r="E64">
-        <v>271.2651525245876</v>
+        <v>268.1549016198281</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1483,16 +1483,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>19844</v>
+        <v>19815</v>
       </c>
       <c r="C65">
-        <v>236.4771202058116</v>
+        <v>236.6906804550599</v>
       </c>
       <c r="D65">
-        <v>206.9495444319314</v>
+        <v>208.1572613409635</v>
       </c>
       <c r="E65">
-        <v>265.7619493554167</v>
+        <v>265.900521489345</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1500,16 +1500,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>19875</v>
+        <v>19845</v>
       </c>
       <c r="C66">
-        <v>241.8764996994857</v>
+        <v>242.0185236099601</v>
       </c>
       <c r="D66">
-        <v>213.3060251549148</v>
+        <v>212.6036929892793</v>
       </c>
       <c r="E66">
-        <v>270.1295647325103</v>
+        <v>271.9389584218367</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1517,16 +1517,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>19905</v>
+        <v>19876</v>
       </c>
       <c r="C67">
-        <v>281.1122400965004</v>
+        <v>281.2848489720785</v>
       </c>
       <c r="D67">
-        <v>253.1625901140955</v>
+        <v>253.0714579979937</v>
       </c>
       <c r="E67">
-        <v>310.9258430263762</v>
+        <v>307.8258087719988</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1534,16 +1534,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>19936</v>
+        <v>19906</v>
       </c>
       <c r="C68">
-        <v>321.1160602740514</v>
+        <v>321.4712793759061</v>
       </c>
       <c r="D68">
-        <v>292.8056881370908</v>
+        <v>293.2973164832156</v>
       </c>
       <c r="E68">
-        <v>348.2775428128834</v>
+        <v>352.5463542120787</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1551,16 +1551,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>19967</v>
+        <v>19937</v>
       </c>
       <c r="C69">
-        <v>320.7306523432915</v>
+        <v>321.0066424314313</v>
       </c>
       <c r="D69">
-        <v>291.9627949078454</v>
+        <v>292.1980982792859</v>
       </c>
       <c r="E69">
-        <v>349.9736356673258</v>
+        <v>348.5547740580687</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1568,16 +1568,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>19997</v>
+        <v>19968</v>
       </c>
       <c r="C70">
-        <v>272.3479503165173</v>
+        <v>272.5702468351984</v>
       </c>
       <c r="D70">
-        <v>242.6691795214054</v>
+        <v>245.7316299591831</v>
       </c>
       <c r="E70">
-        <v>302.5374250021679</v>
+        <v>299.6353657914236</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1585,16 +1585,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>20028</v>
+        <v>19998</v>
       </c>
       <c r="C71">
-        <v>236.4842174943953</v>
+        <v>236.7335297002811</v>
       </c>
       <c r="D71">
-        <v>207.5667386334296</v>
+        <v>212.3337113862742</v>
       </c>
       <c r="E71">
-        <v>264.2729515778109</v>
+        <v>264.9451211323797</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1602,16 +1602,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>20058</v>
+        <v>20029</v>
       </c>
       <c r="C72">
-        <v>203.3895981142935</v>
+        <v>203.6442743990104</v>
       </c>
       <c r="D72">
-        <v>173.542719489884</v>
+        <v>175.793237977066</v>
       </c>
       <c r="E72">
-        <v>232.3546143058843</v>
+        <v>231.0747363105907</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1619,16 +1619,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>20089</v>
+        <v>20059</v>
       </c>
       <c r="C73">
-        <v>232.8032822203095</v>
+        <v>233.0420303290296</v>
       </c>
       <c r="D73">
-        <v>205.187609695218</v>
+        <v>205.6216140616561</v>
       </c>
       <c r="E73">
-        <v>261.0843542802667</v>
+        <v>259.6762020242277</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1636,16 +1636,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>20120</v>
+        <v>20090</v>
       </c>
       <c r="C74">
-        <v>243.9177472547099</v>
+        <v>244.0636701254986</v>
       </c>
       <c r="D74">
-        <v>213.3306944991634</v>
+        <v>215.0270806697193</v>
       </c>
       <c r="E74">
-        <v>270.5465736280966</v>
+        <v>272.3454146280483</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1653,16 +1653,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>20148</v>
+        <v>20121</v>
       </c>
       <c r="C75">
-        <v>235.9565233369463</v>
+        <v>237.2994477312638</v>
       </c>
       <c r="D75">
-        <v>206.1812247920206</v>
+        <v>210.060925061795</v>
       </c>
       <c r="E75">
-        <v>264.0806598232907</v>
+        <v>265.1604979746037</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1670,16 +1670,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>20179</v>
+        <v>20149</v>
       </c>
       <c r="C76">
-        <v>274.7605405514997</v>
+        <v>275.3407715163789</v>
       </c>
       <c r="D76">
-        <v>247.4405574346913</v>
+        <v>245.6734694295272</v>
       </c>
       <c r="E76">
-        <v>302.8591237221611</v>
+        <v>304.5556434630213</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1687,16 +1687,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>20209</v>
+        <v>20180</v>
       </c>
       <c r="C77">
-        <v>269.2216558467906</v>
+        <v>269.5093855815202</v>
       </c>
       <c r="D77">
-        <v>240.907890494999</v>
+        <v>240.4285320851232</v>
       </c>
       <c r="E77">
-        <v>295.793885166235</v>
+        <v>298.1443393971718</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1704,16 +1704,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>20240</v>
+        <v>20210</v>
       </c>
       <c r="C78">
-        <v>276.9222374413787</v>
+        <v>276.9684593525541</v>
       </c>
       <c r="D78">
-        <v>249.1732367027865</v>
+        <v>248.9508599965713</v>
       </c>
       <c r="E78">
-        <v>306.0659260517463</v>
+        <v>305.3857953596282</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1721,16 +1721,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>20270</v>
+        <v>20241</v>
       </c>
       <c r="C79">
-        <v>315.1846382775708</v>
+        <v>315.3115710872637</v>
       </c>
       <c r="D79">
-        <v>287.4551891436887</v>
+        <v>284.4878002460793</v>
       </c>
       <c r="E79">
-        <v>343.7215958117439</v>
+        <v>344.0244576630122</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1738,16 +1738,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>20301</v>
+        <v>20271</v>
       </c>
       <c r="C80">
-        <v>356.209944737821</v>
+        <v>356.6957999083554</v>
       </c>
       <c r="D80">
-        <v>327.7768167637209</v>
+        <v>326.3860994230837</v>
       </c>
       <c r="E80">
-        <v>384.5513476808823</v>
+        <v>384.4251713118906</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1755,16 +1755,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>20332</v>
+        <v>20302</v>
       </c>
       <c r="C81">
-        <v>355.8900431257269</v>
+        <v>356.1171123030182</v>
       </c>
       <c r="D81">
-        <v>326.7903586386848</v>
+        <v>327.661638004546</v>
       </c>
       <c r="E81">
-        <v>385.7241456642361</v>
+        <v>384.366957945413</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1772,16 +1772,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>20362</v>
+        <v>20333</v>
       </c>
       <c r="C82">
-        <v>308.4047150496621</v>
+        <v>308.5628589909061</v>
       </c>
       <c r="D82">
-        <v>279.7750848903777</v>
+        <v>279.6212049698811</v>
       </c>
       <c r="E82">
-        <v>338.5571541854887</v>
+        <v>336.3810691084674</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1789,16 +1789,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>20393</v>
+        <v>20363</v>
       </c>
       <c r="C83">
-        <v>272.2022970305366</v>
+        <v>272.5002318393677</v>
       </c>
       <c r="D83">
-        <v>243.3150780054239</v>
+        <v>244.3731061911259</v>
       </c>
       <c r="E83">
-        <v>301.8955554651506</v>
+        <v>301.5835287804524</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1806,16 +1806,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>20423</v>
+        <v>20394</v>
       </c>
       <c r="C84">
-        <v>240.1572148042653</v>
+        <v>240.5042206977824</v>
       </c>
       <c r="D84">
-        <v>212.7961766225366</v>
+        <v>213.2879070677453</v>
       </c>
       <c r="E84">
-        <v>271.2707851822576</v>
+        <v>268.791470836248</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1823,16 +1823,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>20454</v>
+        <v>20424</v>
       </c>
       <c r="C85">
-        <v>269.9948370314578</v>
+        <v>270.1433569663167</v>
       </c>
       <c r="D85">
-        <v>240.8191605078777</v>
+        <v>240.1800496728753</v>
       </c>
       <c r="E85">
-        <v>298.5477846332329</v>
+        <v>300.8861719130164</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1840,16 +1840,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>20485</v>
+        <v>20455</v>
       </c>
       <c r="C86">
-        <v>279.8032262468362</v>
+        <v>279.5910264012563</v>
       </c>
       <c r="D86">
-        <v>250.9644977579555</v>
+        <v>252.6844142045709</v>
       </c>
       <c r="E86">
-        <v>306.7894317948536</v>
+        <v>310.3330803767711</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1857,16 +1857,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>20514</v>
+        <v>20486</v>
       </c>
       <c r="C87">
-        <v>276.0135711894855</v>
+        <v>272.6030411571495</v>
       </c>
       <c r="D87">
-        <v>248.8318032251732</v>
+        <v>244.1747326853099</v>
       </c>
       <c r="E87">
-        <v>306.3985279182764</v>
+        <v>302.304305380429</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1874,16 +1874,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>20545</v>
+        <v>20515</v>
       </c>
       <c r="C88">
-        <v>308.4080547906049</v>
+        <v>308.3974949501574</v>
       </c>
       <c r="D88">
-        <v>279.9895012718146</v>
+        <v>279.7117817971192</v>
       </c>
       <c r="E88">
-        <v>336.7988318042702</v>
+        <v>336.5853046286466</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1891,16 +1891,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>20575</v>
+        <v>20546</v>
       </c>
       <c r="C89">
-        <v>308.6803103906431</v>
+        <v>308.8793890408035</v>
       </c>
       <c r="D89">
-        <v>279.8828471764146</v>
+        <v>282.8209652615271</v>
       </c>
       <c r="E89">
-        <v>336.7002097238013</v>
+        <v>338.263385891433</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1908,16 +1908,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>20606</v>
+        <v>20576</v>
       </c>
       <c r="C90">
-        <v>311.3638788480653</v>
+        <v>311.7440132873794</v>
       </c>
       <c r="D90">
-        <v>283.8254216773984</v>
+        <v>284.8964812932536</v>
       </c>
       <c r="E90">
-        <v>339.3339625260666</v>
+        <v>339.9167977258403</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1925,16 +1925,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>20636</v>
+        <v>20607</v>
       </c>
       <c r="C91">
-        <v>353.5785238605279</v>
+        <v>353.9189277078353</v>
       </c>
       <c r="D91">
-        <v>324.7157694619482</v>
+        <v>323.6838711006217</v>
       </c>
       <c r="E91">
-        <v>382.8510196321954</v>
+        <v>382.174669871962</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1942,16 +1942,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>20667</v>
+        <v>20637</v>
       </c>
       <c r="C92">
-        <v>392.6671219003011</v>
+        <v>392.7640316935648</v>
       </c>
       <c r="D92">
-        <v>366.133429489961</v>
+        <v>364.1085924925864</v>
       </c>
       <c r="E92">
-        <v>420.1812064892009</v>
+        <v>420.8100520032673</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1959,16 +1959,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>20698</v>
+        <v>20668</v>
       </c>
       <c r="C93">
-        <v>393.3441512870161</v>
+        <v>393.6772190841182</v>
       </c>
       <c r="D93">
-        <v>365.6208356878652</v>
+        <v>365.7923792757865</v>
       </c>
       <c r="E93">
-        <v>420.3590373585651</v>
+        <v>423.7097061516894</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1976,16 +1976,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>20728</v>
+        <v>20699</v>
       </c>
       <c r="C94">
-        <v>344.3782227260439</v>
+        <v>344.6901855028553</v>
       </c>
       <c r="D94">
-        <v>314.3348375708597</v>
+        <v>316.8724260679376</v>
       </c>
       <c r="E94">
-        <v>375.3456951915429</v>
+        <v>375.3670485220988</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1993,16 +1993,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>20759</v>
+        <v>20729</v>
       </c>
       <c r="C95">
-        <v>309.7296911246465</v>
+        <v>309.8096405262233</v>
       </c>
       <c r="D95">
-        <v>282.5523585431847</v>
+        <v>282.6850241951574</v>
       </c>
       <c r="E95">
-        <v>336.5966170601782</v>
+        <v>337.1802047884898</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2010,16 +2010,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>20789</v>
+        <v>20760</v>
       </c>
       <c r="C96">
-        <v>275.0693222356432</v>
+        <v>275.0434760141697</v>
       </c>
       <c r="D96">
-        <v>245.41247517938</v>
+        <v>247.8949707200468</v>
       </c>
       <c r="E96">
-        <v>304.5982092405299</v>
+        <v>302.100319273941</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2027,16 +2027,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>20820</v>
+        <v>20790</v>
       </c>
       <c r="C97">
-        <v>303.9961030923096</v>
+        <v>304.2534838928536</v>
       </c>
       <c r="D97">
-        <v>275.218572401021</v>
+        <v>273.081378663226</v>
       </c>
       <c r="E97">
-        <v>331.9306501357123</v>
+        <v>332.0978795119706</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2044,16 +2044,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>20851</v>
+        <v>20821</v>
       </c>
       <c r="C98">
-        <v>318.1970079348658</v>
+        <v>318.889817526083</v>
       </c>
       <c r="D98">
-        <v>287.9513006355205</v>
+        <v>289.4445990026039</v>
       </c>
       <c r="E98">
-        <v>345.0421977553551</v>
+        <v>348.6002776263734</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2061,16 +2061,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>20879</v>
+        <v>20852</v>
       </c>
       <c r="C99">
-        <v>311.5991772473768</v>
+        <v>313.2326673159932</v>
       </c>
       <c r="D99">
-        <v>281.8920035499495</v>
+        <v>283.6324745742265</v>
       </c>
       <c r="E99">
-        <v>341.1312957775193</v>
+        <v>344.163190462536</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2078,16 +2078,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>20910</v>
+        <v>20880</v>
       </c>
       <c r="C100">
-        <v>346.1617383550459</v>
+        <v>346.2846279230937</v>
       </c>
       <c r="D100">
-        <v>315.5607189386699</v>
+        <v>317.4611286001459</v>
       </c>
       <c r="E100">
-        <v>373.6116077316771</v>
+        <v>372.0298235812865</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2095,16 +2095,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>20940</v>
+        <v>20911</v>
       </c>
       <c r="C101">
-        <v>344.5047844765946</v>
+        <v>344.6716906309443</v>
       </c>
       <c r="D101">
-        <v>311.9919606570968</v>
+        <v>316.1127112677171</v>
       </c>
       <c r="E101">
-        <v>372.1649226299868</v>
+        <v>374.465475493693</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2112,16 +2112,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>20971</v>
+        <v>20941</v>
       </c>
       <c r="C102">
-        <v>348.8615104155944</v>
+        <v>349.0642893187065</v>
       </c>
       <c r="D102">
-        <v>322.2096221658289</v>
+        <v>320.3795415305701</v>
       </c>
       <c r="E102">
-        <v>377.2505483203041</v>
+        <v>377.999663042601</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2129,16 +2129,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>21001</v>
+        <v>20972</v>
       </c>
       <c r="C103">
-        <v>389.7909534303534</v>
+        <v>389.9853222322501</v>
       </c>
       <c r="D103">
-        <v>362.9660025670048</v>
+        <v>360.4871516329262</v>
       </c>
       <c r="E103">
-        <v>417.9577794114783</v>
+        <v>421.3382216232033</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2146,16 +2146,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>21032</v>
+        <v>21002</v>
       </c>
       <c r="C104">
-        <v>429.5377656492819</v>
+        <v>429.6903504346777</v>
       </c>
       <c r="D104">
-        <v>399.7226455013413</v>
+        <v>399.4629120065055</v>
       </c>
       <c r="E104">
-        <v>458.0115902087966</v>
+        <v>458.2124546645518</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2163,16 +2163,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>21063</v>
+        <v>21033</v>
       </c>
       <c r="C105">
-        <v>429.8828833932452</v>
+        <v>430.1084588534567</v>
       </c>
       <c r="D105">
-        <v>400.6220311916624</v>
+        <v>402.4725047030565</v>
       </c>
       <c r="E105">
-        <v>458.7413268466132</v>
+        <v>459.7952404802738</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2180,16 +2180,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>21093</v>
+        <v>21064</v>
       </c>
       <c r="C106">
-        <v>381.3917465171323</v>
+        <v>381.5796143200114</v>
       </c>
       <c r="D106">
-        <v>353.4959164386114</v>
+        <v>353.1399831540253</v>
       </c>
       <c r="E106">
-        <v>410.919067566847</v>
+        <v>410.0090297084274</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2197,16 +2197,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>21124</v>
+        <v>21094</v>
       </c>
       <c r="C107">
-        <v>346.216006328979</v>
+        <v>346.2921381516008</v>
       </c>
       <c r="D107">
-        <v>317.441506095584</v>
+        <v>319.0052877609922</v>
       </c>
       <c r="E107">
-        <v>376.5839226237404</v>
+        <v>374.7008265090876</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2214,16 +2214,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>21154</v>
+        <v>21125</v>
       </c>
       <c r="C108">
-        <v>312.413645873858</v>
+        <v>312.4394399939002</v>
       </c>
       <c r="D108">
-        <v>282.7332229862996</v>
+        <v>284.5015312580438</v>
       </c>
       <c r="E108">
-        <v>339.7815424408996</v>
+        <v>341.1059620546618</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2231,16 +2231,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>21185</v>
+        <v>21155</v>
       </c>
       <c r="C109">
-        <v>341.6935692783222</v>
+        <v>341.8493361809925</v>
       </c>
       <c r="D109">
-        <v>313.5434872948243</v>
+        <v>311.4710165406676</v>
       </c>
       <c r="E109">
-        <v>369.5171099311189</v>
+        <v>372.2076986494887</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2248,16 +2248,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>21216</v>
+        <v>21186</v>
       </c>
       <c r="C110">
-        <v>354.4428439428206</v>
+        <v>354.7617086310357</v>
       </c>
       <c r="D110">
-        <v>328.7727945590185</v>
+        <v>326.4134727006836</v>
       </c>
       <c r="E110">
-        <v>383.8981530120662</v>
+        <v>384.2163623593881</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2265,16 +2265,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>21244</v>
+        <v>21217</v>
       </c>
       <c r="C111">
-        <v>347.2099116164225</v>
+        <v>348.6016298152904</v>
       </c>
       <c r="D111">
-        <v>319.5064661499512</v>
+        <v>320.2314460589331</v>
       </c>
       <c r="E111">
-        <v>376.4137858833828</v>
+        <v>377.3595783297751</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2282,16 +2282,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>21275</v>
+        <v>21245</v>
       </c>
       <c r="C112">
-        <v>383.919011171186</v>
+        <v>384.1718719285368</v>
       </c>
       <c r="D112">
-        <v>355.9661451355194</v>
+        <v>355.5445036183087</v>
       </c>
       <c r="E112">
-        <v>411.4466163385213</v>
+        <v>414.0081002372776</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2299,16 +2299,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>21305</v>
+        <v>21276</v>
       </c>
       <c r="C113">
-        <v>380.3336569614858</v>
+        <v>380.4620217942862</v>
       </c>
       <c r="D113">
-        <v>354.086291985995</v>
+        <v>351.2372918232687</v>
       </c>
       <c r="E113">
-        <v>410.8557377850145</v>
+        <v>409.5909610679616</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2316,16 +2316,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>21336</v>
+        <v>21306</v>
       </c>
       <c r="C114">
-        <v>386.3725944383298</v>
+        <v>386.3943130926297</v>
       </c>
       <c r="D114">
-        <v>355.3658009027475</v>
+        <v>357.4274084295664</v>
       </c>
       <c r="E114">
-        <v>415.1309735546085</v>
+        <v>413.7523126592722</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2333,16 +2333,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>21366</v>
+        <v>21337</v>
       </c>
       <c r="C115">
-        <v>425.9934713154171</v>
+        <v>426.0459175902815</v>
       </c>
       <c r="D115">
-        <v>395.710380528104</v>
+        <v>395.5080923554904</v>
       </c>
       <c r="E115">
-        <v>455.79071140309</v>
+        <v>453.67169144344</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2350,16 +2350,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>21397</v>
+        <v>21367</v>
       </c>
       <c r="C116">
-        <v>466.3952658557004</v>
+        <v>466.6051987704217</v>
       </c>
       <c r="D116">
-        <v>439.5613851389534</v>
+        <v>436.7884699448043</v>
       </c>
       <c r="E116">
-        <v>493.7902784861581</v>
+        <v>495.4556364647873</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2367,16 +2367,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>21428</v>
+        <v>21398</v>
       </c>
       <c r="C117">
-        <v>466.4078465965021</v>
+        <v>466.5261185865234</v>
       </c>
       <c r="D117">
-        <v>433.5700906234882</v>
+        <v>438.9549832293793</v>
       </c>
       <c r="E117">
-        <v>492.6227290770292</v>
+        <v>494.9709736969838</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2384,16 +2384,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>21458</v>
+        <v>21429</v>
       </c>
       <c r="C118">
-        <v>418.410294897039</v>
+        <v>418.4752797508613</v>
       </c>
       <c r="D118">
-        <v>390.5944937527108</v>
+        <v>388.2010866843856</v>
       </c>
       <c r="E118">
-        <v>447.9616864839157</v>
+        <v>446.8870569712522</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2401,16 +2401,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>21489</v>
+        <v>21459</v>
       </c>
       <c r="C119">
-        <v>382.7165718270958</v>
+        <v>382.7941855275241</v>
       </c>
       <c r="D119">
-        <v>353.8506079040971</v>
+        <v>353.767758659621</v>
       </c>
       <c r="E119">
-        <v>410.8089998007955</v>
+        <v>411.4239712342901</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2418,16 +2418,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>21519</v>
+        <v>21490</v>
       </c>
       <c r="C120">
-        <v>349.7864780136118</v>
+        <v>349.8657405682115</v>
       </c>
       <c r="D120">
-        <v>320.384349377762</v>
+        <v>321.8988255986579</v>
       </c>
       <c r="E120">
-        <v>378.4456631002107</v>
+        <v>378.7275261647225</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2435,16 +2435,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>21550</v>
+        <v>21520</v>
       </c>
       <c r="C121">
-        <v>379.3701718718031</v>
+        <v>379.4191194098107</v>
       </c>
       <c r="D121">
-        <v>351.4749908092725</v>
+        <v>350.2527572722911</v>
       </c>
       <c r="E121">
-        <v>409.0185179579896</v>
+        <v>406.0168987439145</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2452,16 +2452,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>21581</v>
+        <v>21551</v>
       </c>
       <c r="C122">
-        <v>390.654646658376</v>
+        <v>390.6015695482433</v>
       </c>
       <c r="D122">
-        <v>361.1623486321083</v>
+        <v>362.5319071127926</v>
       </c>
       <c r="E122">
-        <v>422.0615069396762</v>
+        <v>417.8784762874807</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2469,16 +2469,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>21609</v>
+        <v>21582</v>
       </c>
       <c r="C123">
-        <v>382.8469799361247</v>
+        <v>383.9981574959696</v>
       </c>
       <c r="D123">
-        <v>352.8708719090159</v>
+        <v>354.4540545634185</v>
       </c>
       <c r="E123">
-        <v>413.0187669923541</v>
+        <v>412.962999906732</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2486,16 +2486,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>21640</v>
+        <v>21610</v>
       </c>
       <c r="C124">
-        <v>421.6792043547106</v>
+        <v>422.0613782166553</v>
       </c>
       <c r="D124">
-        <v>394.6738114062846</v>
+        <v>393.7546453144997</v>
       </c>
       <c r="E124">
-        <v>447.9948599141537</v>
+        <v>450.6822100329491</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2503,16 +2503,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>21670</v>
+        <v>21641</v>
       </c>
       <c r="C125">
-        <v>416.1676169442208</v>
+        <v>416.2542353176073</v>
       </c>
       <c r="D125">
-        <v>387.8327052437463</v>
+        <v>387.6295515168684</v>
       </c>
       <c r="E125">
-        <v>443.9291779678114</v>
+        <v>445.4144319930477</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2520,16 +2520,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>21701</v>
+        <v>21671</v>
       </c>
       <c r="C126">
-        <v>423.8964057428416</v>
+        <v>423.7367700910385</v>
       </c>
       <c r="D126">
-        <v>393.5793254194826</v>
+        <v>394.2534629433666</v>
       </c>
       <c r="E126">
-        <v>452.985187356661</v>
+        <v>451.5656284297792</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2537,16 +2537,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>21731</v>
+        <v>21702</v>
       </c>
       <c r="C127">
-        <v>462.1861038732581</v>
+        <v>462.1041248615608</v>
       </c>
       <c r="D127">
-        <v>433.7843219728359</v>
+        <v>434.5966179527272</v>
       </c>
       <c r="E127">
-        <v>490.7517285240744</v>
+        <v>492.9569841280066</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2554,16 +2554,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>21762</v>
+        <v>21732</v>
       </c>
       <c r="C128">
-        <v>503.2396175375403</v>
+        <v>503.5118146850506</v>
       </c>
       <c r="D128">
-        <v>473.9253154933277</v>
+        <v>475.9441773356839</v>
       </c>
       <c r="E128">
-        <v>531.9473214990662</v>
+        <v>531.802481931927</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2571,16 +2571,16 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>21793</v>
+        <v>21763</v>
       </c>
       <c r="C129">
-        <v>502.9197305553976</v>
+        <v>502.9335146123182</v>
       </c>
       <c r="D129">
-        <v>473.2916540580937</v>
+        <v>474.7172395955888</v>
       </c>
       <c r="E129">
-        <v>532.1721437295698</v>
+        <v>530.811513451521</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2588,16 +2588,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>21823</v>
+        <v>21794</v>
       </c>
       <c r="C130">
-        <v>455.4344166373536</v>
+        <v>455.3796488328111</v>
       </c>
       <c r="D130">
-        <v>427.2812334415543</v>
+        <v>426.3106572595362</v>
       </c>
       <c r="E130">
-        <v>484.5525928580983</v>
+        <v>483.1253858653132</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2605,16 +2605,16 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>21854</v>
+        <v>21824</v>
       </c>
       <c r="C131">
-        <v>419.2320132481806</v>
+        <v>419.3173967128231</v>
       </c>
       <c r="D131">
-        <v>391.8365720330409</v>
+        <v>388.6523276070153</v>
       </c>
       <c r="E131">
-        <v>449.1346310002364</v>
+        <v>448.0919602965541</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2622,16 +2622,16 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>21884</v>
+        <v>21855</v>
       </c>
       <c r="C132">
-        <v>387.1869451799269</v>
+        <v>387.3217731038455</v>
       </c>
       <c r="D132">
-        <v>358.5168931632497</v>
+        <v>358.297095093205</v>
       </c>
       <c r="E132">
-        <v>415.2197492085085</v>
+        <v>418.3109613221429</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2639,16 +2639,16 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>21915</v>
+        <v>21885</v>
       </c>
       <c r="C133">
-        <v>417.0245820591936</v>
+        <v>416.9612842757882</v>
       </c>
       <c r="D133">
-        <v>386.5715630494799</v>
+        <v>389.1350167640082</v>
       </c>
       <c r="E133">
-        <v>446.7977270039223</v>
+        <v>447.7816776886813</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2656,16 +2656,16 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>21946</v>
+        <v>21916</v>
       </c>
       <c r="C134">
-        <v>426.8329859266465</v>
+        <v>426.4093411109149</v>
       </c>
       <c r="D134">
-        <v>397.3844723271288</v>
+        <v>395.6498584451132</v>
       </c>
       <c r="E134">
-        <v>456.0690651460106</v>
+        <v>453.8421493577592</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2673,16 +2673,16 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>21975</v>
+        <v>21947</v>
       </c>
       <c r="C135">
-        <v>423.0433445760717</v>
+        <v>419.4217432669969</v>
       </c>
       <c r="D135">
-        <v>395.7461385765282</v>
+        <v>389.7535146179021</v>
       </c>
       <c r="E135">
-        <v>452.4685387739765</v>
+        <v>446.5323948888725</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2690,16 +2690,16 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>22006</v>
+        <v>21976</v>
       </c>
       <c r="C136">
-        <v>455.4378428292658</v>
+        <v>455.2165594666312</v>
       </c>
       <c r="D136">
-        <v>424.8736116471896</v>
+        <v>425.9758463024011</v>
       </c>
       <c r="E136">
-        <v>484.6417178713143</v>
+        <v>484.4603037892261</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2707,16 +2707,16 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>22036</v>
+        <v>22007</v>
       </c>
       <c r="C137">
-        <v>455.7101126087321</v>
+        <v>455.698840957467</v>
       </c>
       <c r="D137">
-        <v>423.2155955686591</v>
+        <v>427.2191991765929</v>
       </c>
       <c r="E137">
-        <v>486.9331459628925</v>
+        <v>484.5394885428622</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2724,16 +2724,16 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>22067</v>
+        <v>22037</v>
       </c>
       <c r="C138">
-        <v>458.3936957176408</v>
+        <v>458.5638399202903</v>
       </c>
       <c r="D138">
-        <v>429.6937447820867</v>
+        <v>430.2217864089686</v>
       </c>
       <c r="E138">
-        <v>488.3191951286878</v>
+        <v>488.0771404798937</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2741,16 +2741,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>22097</v>
+        <v>22068</v>
       </c>
       <c r="C139">
-        <v>500.6083549089627</v>
+        <v>500.7391415475331</v>
       </c>
       <c r="D139">
-        <v>471.3238021171139</v>
+        <v>471.614833276314</v>
       </c>
       <c r="E139">
-        <v>529.0326744553377</v>
+        <v>529.4171747590003</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2758,16 +2758,16 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>22128</v>
+        <v>22098</v>
       </c>
       <c r="C140">
-        <v>539.6969676002241</v>
+        <v>539.5846202495054</v>
       </c>
       <c r="D140">
-        <v>512.9914063485968</v>
+        <v>508.3639895264431</v>
       </c>
       <c r="E140">
-        <v>569.5787449376763</v>
+        <v>567.1247642939217</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2775,16 +2775,16 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>22159</v>
+        <v>22129</v>
       </c>
       <c r="C141">
-        <v>540.3740116384258</v>
+        <v>540.4981948468494</v>
       </c>
       <c r="D141">
-        <v>509.8274143707627</v>
+        <v>510.1602914481555</v>
       </c>
       <c r="E141">
-        <v>569.1540517812392</v>
+        <v>569.6482188461085</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2792,16 +2792,16 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>22189</v>
+        <v>22160</v>
       </c>
       <c r="C142">
-        <v>491.408097275929</v>
+        <v>491.5115484964651</v>
       </c>
       <c r="D142">
-        <v>461.8318241761623</v>
+        <v>464.314448307682</v>
       </c>
       <c r="E142">
-        <v>519.3085551494758</v>
+        <v>521.5959736569527</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2809,16 +2809,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>22220</v>
+        <v>22190</v>
       </c>
       <c r="C143">
-        <v>456.7595803462928</v>
+        <v>456.6313782593884</v>
       </c>
       <c r="D143">
-        <v>428.2913564355069</v>
+        <v>427.9136719171873</v>
       </c>
       <c r="E143">
-        <v>486.5514099846398</v>
+        <v>484.1447578138747</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2826,16 +2826,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>22250</v>
+        <v>22221</v>
       </c>
       <c r="C144">
-        <v>422.0992256557677</v>
+        <v>421.8656009782089</v>
       </c>
       <c r="D144">
-        <v>395.1264269626068</v>
+        <v>390.851335946077</v>
       </c>
       <c r="E144">
-        <v>449.0592146087546</v>
+        <v>451.41095399214</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2843,16 +2843,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>22281</v>
+        <v>22251</v>
       </c>
       <c r="C145">
-        <v>451.0260211841959</v>
+        <v>451.0759835964515</v>
       </c>
       <c r="D145">
-        <v>424.2925096136171</v>
+        <v>421.3788648551487</v>
       </c>
       <c r="E145">
-        <v>479.0636827108221</v>
+        <v>481.3797062035263</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2860,16 +2860,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>22282</v>
+        <v>22252</v>
       </c>
       <c r="C146">
-        <v>447.0844853264831</v>
+        <v>447.2445448027425</v>
       </c>
       <c r="D146">
-        <v>419.2485925673619</v>
+        <v>418.8464202538187</v>
       </c>
       <c r="E146">
-        <v>474.9837631852713</v>
+        <v>475.962991397901</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2877,16 +2877,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>22283</v>
+        <v>22253</v>
       </c>
       <c r="C147">
-        <v>442.9240930855686</v>
+        <v>443.0664966626517</v>
       </c>
       <c r="D147">
-        <v>413.8246534850682</v>
+        <v>416.6897192835949</v>
       </c>
       <c r="E147">
-        <v>473.3426245751624</v>
+        <v>470.8372116291722</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2894,16 +2894,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>22284</v>
+        <v>22254</v>
       </c>
       <c r="C148">
-        <v>438.6439622089728</v>
+        <v>438.639601735739</v>
       </c>
       <c r="D148">
-        <v>410.2247598619471</v>
+        <v>411.0373457191198</v>
       </c>
       <c r="E148">
-        <v>468.7116178991556</v>
+        <v>468.740301488894</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2911,16 +2911,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>22285</v>
+        <v>22255</v>
       </c>
       <c r="C149">
-        <v>434.3465566449443</v>
+        <v>434.068735932756</v>
       </c>
       <c r="D149">
-        <v>404.4609322242457</v>
+        <v>404.8459720129508</v>
       </c>
       <c r="E149">
-        <v>462.634723939135</v>
+        <v>461.7406622007866</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2928,16 +2928,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>22286</v>
+        <v>22256</v>
       </c>
       <c r="C150">
-        <v>430.1351417216009</v>
+        <v>429.4633255950599</v>
       </c>
       <c r="D150">
-        <v>400.9680604563217</v>
+        <v>401.2459997759802</v>
       </c>
       <c r="E150">
-        <v>461.2730763600055</v>
+        <v>457.2406688651025</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2945,16 +2945,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>22287</v>
+        <v>22257</v>
       </c>
       <c r="C151">
-        <v>426.1112155542278</v>
+        <v>424.9346591026774</v>
       </c>
       <c r="D151">
-        <v>395.2801579506275</v>
+        <v>396.3215009913325</v>
       </c>
       <c r="E151">
-        <v>453.7246953584908</v>
+        <v>454.999575630024</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2962,16 +2962,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>22288</v>
+        <v>22258</v>
       </c>
       <c r="C152">
-        <v>422.3719827089886</v>
+        <v>420.5931410172607</v>
       </c>
       <c r="D152">
-        <v>393.4881788333002</v>
+        <v>390.8888113952814</v>
       </c>
       <c r="E152">
-        <v>450.1468454952588</v>
+        <v>448.1159874708225</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2979,16 +2979,16 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>22289</v>
+        <v>22259</v>
       </c>
       <c r="C153">
-        <v>419.0079351127114</v>
+        <v>416.5455584305521</v>
       </c>
       <c r="D153">
-        <v>391.2609694290914</v>
+        <v>385.6615484235347</v>
       </c>
       <c r="E153">
-        <v>448.681932266351</v>
+        <v>444.7026868528858</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2996,16 +2996,16 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>22290</v>
+        <v>22260</v>
       </c>
       <c r="C154">
-        <v>416.1006024460752</v>
+        <v>412.892429041642</v>
       </c>
       <c r="D154">
-        <v>387.5615067460503</v>
+        <v>383.0531667228981</v>
       </c>
       <c r="E154">
-        <v>443.6484219438161</v>
+        <v>440.7877281801007</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3013,16 +3013,16 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>22291</v>
+        <v>22261</v>
       </c>
       <c r="C155">
-        <v>413.7205298644835</v>
+        <v>409.7254985292285</v>
       </c>
       <c r="D155">
-        <v>383.0554672535604</v>
+        <v>383.3255115018668</v>
       </c>
       <c r="E155">
-        <v>442.6294358828065</v>
+        <v>439.8713366324001</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3030,16 +3030,16 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>22292</v>
+        <v>22262</v>
       </c>
       <c r="C156">
-        <v>411.9255349752376</v>
+        <v>407.1254510683855</v>
       </c>
       <c r="D156">
-        <v>384.369205234193</v>
+        <v>380.5009404312311</v>
       </c>
       <c r="E156">
-        <v>437.8379203399247</v>
+        <v>432.2969413202167</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3047,16 +3047,16 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>22293</v>
+        <v>22263</v>
       </c>
       <c r="C157">
-        <v>410.7592887195656</v>
+        <v>405.1598914619385</v>
       </c>
       <c r="D157">
-        <v>382.1927862598134</v>
+        <v>375.0459305347183</v>
       </c>
       <c r="E157">
-        <v>438.2204911981449</v>
+        <v>433.4545867179781</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3064,16 +3064,16 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>22294</v>
+        <v>22264</v>
       </c>
       <c r="C158">
-        <v>410.2502563591511</v>
+        <v>403.8816504552161</v>
       </c>
       <c r="D158">
-        <v>382.7111109671777</v>
+        <v>373.8735101431826</v>
       </c>
       <c r="E158">
-        <v>439.0651697204693</v>
+        <v>432.0469017827472</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3081,16 +3081,16 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>22295</v>
+        <v>22265</v>
       </c>
       <c r="C159">
-        <v>410.4110253749679</v>
+        <v>403.3274565613426</v>
       </c>
       <c r="D159">
-        <v>379.7638056349562</v>
+        <v>374.5721460573437</v>
       </c>
       <c r="E159">
-        <v>436.8268842289697</v>
+        <v>430.9409276249937</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3098,16 +3098,16 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>22296</v>
+        <v>22266</v>
       </c>
       <c r="C160">
-        <v>411.2380370031977</v>
+        <v>403.5170083588866</v>
       </c>
       <c r="D160">
-        <v>382.6762275295731</v>
+        <v>375.9607225712226</v>
       </c>
       <c r="E160">
-        <v>440.6864678484309</v>
+        <v>432.9592946501336</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3115,16 +3115,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>22297</v>
+        <v>22267</v>
       </c>
       <c r="C161">
-        <v>412.7117276278476</v>
+        <v>404.4524709810338</v>
       </c>
       <c r="D161">
-        <v>384.4265400705376</v>
+        <v>375.4089607640691</v>
       </c>
       <c r="E161">
-        <v>442.6336025365405</v>
+        <v>432.2855542299106</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3132,16 +3132,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>22298</v>
+        <v>22268</v>
       </c>
       <c r="C162">
-        <v>414.7970756028787</v>
+        <v>406.1184096647352</v>
       </c>
       <c r="D162">
-        <v>385.2662522237637</v>
+        <v>378.2436400700959</v>
       </c>
       <c r="E162">
-        <v>442.5273483951766</v>
+        <v>434.345642906704</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3149,16 +3149,16 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>22299</v>
+        <v>22269</v>
       </c>
       <c r="C163">
-        <v>417.444538571167</v>
+        <v>408.4821620543742</v>
       </c>
       <c r="D163">
-        <v>391.3478282073625</v>
+        <v>380.0582044341731</v>
       </c>
       <c r="E163">
-        <v>447.0732538531893</v>
+        <v>437.6072600395647</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3166,16 +3166,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>22300</v>
+        <v>22270</v>
       </c>
       <c r="C164">
-        <v>420.5913562623645</v>
+        <v>411.4946397504227</v>
       </c>
       <c r="D164">
-        <v>392.4636854631438</v>
+        <v>382.4139699833436</v>
       </c>
       <c r="E164">
-        <v>449.7612922414405</v>
+        <v>441.0619766716756</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3183,16 +3183,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>22301</v>
+        <v>22271</v>
       </c>
       <c r="C165">
-        <v>424.1631843529772</v>
+        <v>415.0915386521684</v>
       </c>
       <c r="D165">
-        <v>393.4792202495772</v>
+        <v>386.9279536904521</v>
       </c>
       <c r="E165">
-        <v>451.9043841449851</v>
+        <v>444.3777499402653</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3200,16 +3200,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>22302</v>
+        <v>22272</v>
       </c>
       <c r="C166">
-        <v>428.0760165070197</v>
+        <v>419.1949272505553</v>
       </c>
       <c r="D166">
-        <v>397.5261051008349</v>
+        <v>391.812305124182</v>
       </c>
       <c r="E166">
-        <v>455.4690499622763</v>
+        <v>448.5499691171863</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3217,16 +3217,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>22303</v>
+        <v>22273</v>
       </c>
       <c r="C167">
-        <v>432.2383444055136</v>
+        <v>423.7151724522632</v>
       </c>
       <c r="D167">
-        <v>403.4597274882404</v>
+        <v>396.6247524854983</v>
       </c>
       <c r="E167">
-        <v>462.5015844363937</v>
+        <v>453.1433239618611</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3234,16 +3234,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>22304</v>
+        <v>22274</v>
       </c>
       <c r="C168">
-        <v>436.553499607054</v>
+        <v>428.553154007116</v>
       </c>
       <c r="D168">
-        <v>406.4932664892551</v>
+        <v>397.7175061479049</v>
       </c>
       <c r="E168">
-        <v>464.9301595577802</v>
+        <v>456.4314032665771</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3251,16 +3251,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>22305</v>
+        <v>22275</v>
       </c>
       <c r="C169">
-        <v>440.9221166121868</v>
+        <v>433.6027113863242</v>
       </c>
       <c r="D169">
-        <v>410.4468222449883</v>
+        <v>405.6349847510101</v>
       </c>
       <c r="E169">
-        <v>469.8369160850995</v>
+        <v>462.8920946187417</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3268,16 +3268,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>22306</v>
+        <v>22276</v>
       </c>
       <c r="C170">
-        <v>445.2446536426306</v>
+        <v>438.7532612026835</v>
       </c>
       <c r="D170">
-        <v>416.1130848622328</v>
+        <v>411.5905963037679</v>
       </c>
       <c r="E170">
-        <v>473.7403975420952</v>
+        <v>468.6633643307761</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3285,16 +3285,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>22307</v>
+        <v>22277</v>
       </c>
       <c r="C171">
-        <v>449.4239064604505</v>
+        <v>443.8925191201317</v>
       </c>
       <c r="D171">
-        <v>418.6353821128235</v>
+        <v>414.2085998569466</v>
       </c>
       <c r="E171">
-        <v>475.8629564634059</v>
+        <v>471.6499271870966</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3302,16 +3302,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>22308</v>
+        <v>22278</v>
       </c>
       <c r="C172">
-        <v>453.3674510643468</v>
+        <v>448.9092577701043</v>
       </c>
       <c r="D172">
-        <v>423.3166940994629</v>
+        <v>419.4583439581354</v>
       </c>
       <c r="E172">
-        <v>481.2498355580499</v>
+        <v>478.396321880189</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3319,16 +3319,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>22309</v>
+        <v>22279</v>
       </c>
       <c r="C173">
-        <v>456.9899532872773</v>
+        <v>453.6960315314149</v>
       </c>
       <c r="D173">
-        <v>428.9681432323807</v>
+        <v>424.1675274329255</v>
       </c>
       <c r="E173">
-        <v>485.3614799475709</v>
+        <v>481.616739189257</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3336,16 +3336,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>22310</v>
+        <v>22280</v>
       </c>
       <c r="C174">
-        <v>460.2152871132657</v>
+        <v>458.1518001474652</v>
       </c>
       <c r="D174">
-        <v>433.1002164288855</v>
+        <v>430.4252094122008</v>
       </c>
       <c r="E174">
-        <v>489.8773416796504</v>
+        <v>485.8270333583606</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3353,16 +3353,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>22311</v>
+        <v>22281</v>
       </c>
       <c r="C175">
-        <v>462.9784088211426</v>
+        <v>462.1843860112432</v>
       </c>
       <c r="D175">
-        <v>435.0459646784175</v>
+        <v>434.6540797660169</v>
       </c>
       <c r="E175">
-        <v>492.6911010459762</v>
+        <v>489.4201242134399</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3370,16 +3370,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>22312</v>
+        <v>22282</v>
       </c>
       <c r="C176">
-        <v>465.2269406985117</v>
+        <v>465.7127044605576</v>
       </c>
       <c r="D176">
-        <v>437.1312035877162</v>
+        <v>435.9467980596199</v>
       </c>
       <c r="E176">
-        <v>493.6590792297336</v>
+        <v>492.5701063590034</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3387,16 +3387,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>22313</v>
+        <v>22283</v>
       </c>
       <c r="C177">
-        <v>466.9224258655864</v>
+        <v>468.6687124666419</v>
       </c>
       <c r="D177">
-        <v>438.2426867881135</v>
+        <v>439.4010787618457</v>
       </c>
       <c r="E177">
-        <v>495.6790012325405</v>
+        <v>497.6555990093049</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3404,16 +3404,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>22314</v>
+        <v>22284</v>
       </c>
       <c r="C178">
-        <v>468.041224490306</v>
+        <v>470.999028501656</v>
       </c>
       <c r="D178">
-        <v>441.9266907772123</v>
+        <v>440.2260068595174</v>
       </c>
       <c r="E178">
-        <v>498.699195344526</v>
+        <v>498.1652135159936</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3421,16 +3421,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>22315</v>
+        <v>22285</v>
       </c>
       <c r="C179">
-        <v>468.5750311247243</v>
+        <v>472.6661849338804</v>
       </c>
       <c r="D179">
-        <v>438.8132229531596</v>
+        <v>443.4278152539669</v>
       </c>
       <c r="E179">
-        <v>496.0093491308278</v>
+        <v>500.5928836886745</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3438,16 +3438,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>22316</v>
+        <v>22286</v>
       </c>
       <c r="C180">
-        <v>468.5310027920711</v>
+        <v>473.6494837929446</v>
       </c>
       <c r="D180">
-        <v>439.3346870649253</v>
+        <v>445.087247667206</v>
       </c>
       <c r="E180">
-        <v>498.3010154093362</v>
+        <v>501.0687264901843</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3455,16 +3455,16 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>22317</v>
+        <v>22287</v>
       </c>
       <c r="C181">
-        <v>467.93149753815</v>
+        <v>473.9454369181688</v>
       </c>
       <c r="D181">
-        <v>438.6151996910883</v>
+        <v>447.3195191682562</v>
       </c>
       <c r="E181">
-        <v>497.487308293818</v>
+        <v>502.042173044042</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3472,16 +3472,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>22318</v>
+        <v>22288</v>
       </c>
       <c r="C182">
-        <v>466.8134331614091</v>
+        <v>473.5677820820086</v>
       </c>
       <c r="D182">
-        <v>439.274352579365</v>
+        <v>444.1778461831453</v>
       </c>
       <c r="E182">
-        <v>495.5176839330386</v>
+        <v>499.6223684974126</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3489,16 +3489,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>22319</v>
+        <v>22289</v>
       </c>
       <c r="C183">
-        <v>465.2272854889898</v>
+        <v>472.5470773901603</v>
       </c>
       <c r="D183">
-        <v>437.0499689203194</v>
+        <v>443.1592347203077</v>
       </c>
       <c r="E183">
-        <v>494.2299136324642</v>
+        <v>500.4841303749597</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3506,16 +3506,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>22320</v>
+        <v>22290</v>
       </c>
       <c r="C184">
-        <v>463.235754619239</v>
+        <v>470.9298868214501</v>
       </c>
       <c r="D184">
-        <v>431.9905009906764</v>
+        <v>442.3677328261647</v>
       </c>
       <c r="E184">
-        <v>489.4824301985923</v>
+        <v>496.8035470927135</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3523,16 +3523,16 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>22321</v>
+        <v>22291</v>
       </c>
       <c r="C185">
-        <v>460.912135770903</v>
+        <v>468.7775799119228</v>
       </c>
       <c r="D185">
-        <v>432.5130244123606</v>
+        <v>440.4156744105034</v>
       </c>
       <c r="E185">
-        <v>489.0626354188651</v>
+        <v>498.2222933182881</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3540,16 +3540,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>22322</v>
+        <v>22292</v>
       </c>
       <c r="C186">
-        <v>458.3384385566308</v>
+        <v>466.1647780499548</v>
       </c>
       <c r="D186">
-        <v>430.5014604365043</v>
+        <v>440.5931236482152</v>
       </c>
       <c r="E186">
-        <v>489.0534438477525</v>
+        <v>494.9145602402353</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3557,16 +3557,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>22323</v>
+        <v>22293</v>
       </c>
       <c r="C187">
-        <v>455.6033044548082</v>
+        <v>463.1774883942769</v>
       </c>
       <c r="D187">
-        <v>427.4780377463301</v>
+        <v>434.6666086548196</v>
       </c>
       <c r="E187">
-        <v>484.5152350030897</v>
+        <v>492.2533961311219</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3574,16 +3574,16 @@
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>22324</v>
+        <v>22294</v>
       </c>
       <c r="C188">
-        <v>452.7997768451555</v>
+        <v>459.9109738428536</v>
       </c>
       <c r="D188">
-        <v>424.642879274218</v>
+        <v>432.867620383076</v>
       </c>
       <c r="E188">
-        <v>480.5296348855608</v>
+        <v>488.1846071893685</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3591,16 +3591,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>22325</v>
+        <v>22295</v>
       </c>
       <c r="C189">
-        <v>450.0229810944317</v>
+        <v>456.4674135875821</v>
       </c>
       <c r="D189">
-        <v>421.3513734413682</v>
+        <v>429.31844164807</v>
       </c>
       <c r="E189">
-        <v>477.7926198057471</v>
+        <v>487.4676263958454</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3608,16 +3608,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>22326</v>
+        <v>22296</v>
       </c>
       <c r="C190">
-        <v>447.3677737642022</v>
+        <v>452.9534134443001</v>
       </c>
       <c r="D190">
-        <v>420.8216300811967</v>
+        <v>423.9933347974658</v>
       </c>
       <c r="E190">
-        <v>477.125067955113</v>
+        <v>480.19693420687</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3625,16 +3625,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>22327</v>
+        <v>22297</v>
       </c>
       <c r="C191">
-        <v>444.9264200403114</v>
+        <v>449.4774282459592</v>
       </c>
       <c r="D191">
-        <v>420.2746514860004</v>
+        <v>422.2955490196493</v>
       </c>
       <c r="E191">
-        <v>474.5410758518529</v>
+        <v>479.329473447612</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3642,16 +3642,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>22328</v>
+        <v>22298</v>
       </c>
       <c r="C192">
-        <v>442.7863569731464</v>
+        <v>446.1471600674073</v>
       </c>
       <c r="D192">
-        <v>413.5975678247632</v>
+        <v>417.0910547781138</v>
       </c>
       <c r="E192">
-        <v>470.8681625530168</v>
+        <v>474.0652257676772</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3659,16 +3659,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <v>22329</v>
+        <v>22299</v>
       </c>
       <c r="C193">
-        <v>441.028097129946</v>
+        <v>443.066995894975</v>
       </c>
       <c r="D193">
-        <v>410.9430373011241</v>
+        <v>414.3396550290586</v>
       </c>
       <c r="E193">
-        <v>469.8966381091692</v>
+        <v>473.4162493370967</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3676,16 +3676,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>22330</v>
+        <v>22300</v>
       </c>
       <c r="C194">
-        <v>439.7233228952973</v>
+        <v>440.3355465879378</v>
       </c>
       <c r="D194">
-        <v>411.6789989466923</v>
+        <v>411.2544952296109</v>
       </c>
       <c r="E194">
-        <v>469.3861244674043</v>
+        <v>469.437134784057</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3693,16 +3693,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>22331</v>
+        <v>22301</v>
       </c>
       <c r="C195">
-        <v>438.9332160494952</v>
+        <v>438.0433456692356</v>
       </c>
       <c r="D195">
-        <v>410.1876800176597</v>
+        <v>410.0156666601887</v>
       </c>
       <c r="E195">
-        <v>466.1478288187175</v>
+        <v>467.1120756011529</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3710,16 +3710,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>22332</v>
+        <v>22302</v>
       </c>
       <c r="C196">
-        <v>438.7070605743258</v>
+        <v>436.2707617365215</v>
       </c>
       <c r="D196">
-        <v>409.9463672624316</v>
+        <v>406.3461733893578</v>
       </c>
       <c r="E196">
-        <v>468.939107392691</v>
+        <v>466.0537112890466</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3727,16 +3727,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>22333</v>
+        <v>22303</v>
       </c>
       <c r="C197">
-        <v>439.0811490762532</v>
+        <v>435.0861722450494</v>
       </c>
       <c r="D197">
-        <v>407.720940667599</v>
+        <v>409.1893373545057</v>
       </c>
       <c r="E197">
-        <v>468.9775974805067</v>
+        <v>462.5543508216981</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3744,16 +3744,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>22334</v>
+        <v>22304</v>
       </c>
       <c r="C198">
-        <v>440.0780149933497</v>
+        <v>434.5444392566101</v>
       </c>
       <c r="D198">
-        <v>412.1443135478254</v>
+        <v>406.5602567787889</v>
       </c>
       <c r="E198">
-        <v>467.0919828371322</v>
+        <v>462.0933284106391</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3761,16 +3761,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>22335</v>
+        <v>22305</v>
       </c>
       <c r="C199">
-        <v>441.7060040946624</v>
+        <v>434.6857196759232</v>
       </c>
       <c r="D199">
-        <v>413.027550442777</v>
+        <v>405.8953227461708</v>
       </c>
       <c r="E199">
-        <v>470.1143656915114</v>
+        <v>464.1900110651196</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3778,16 +3778,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <v>22336</v>
+        <v>22306</v>
       </c>
       <c r="C200">
-        <v>443.9591899272496</v>
+        <v>435.5346337312943</v>
       </c>
       <c r="D200">
-        <v>416.4650810075701</v>
+        <v>408.3373345375146</v>
       </c>
       <c r="E200">
-        <v>472.6507763479174</v>
+        <v>465.6673687169517</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3795,16 +3795,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>22337</v>
+        <v>22307</v>
       </c>
       <c r="C201">
-        <v>446.8176290568761</v>
+        <v>437.0998062379084</v>
       </c>
       <c r="D201">
-        <v>417.8646771084561</v>
+        <v>409.1893086675727</v>
       </c>
       <c r="E201">
-        <v>473.2017814379656</v>
+        <v>466.2551040950423</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3812,16 +3812,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="2">
-        <v>22338</v>
+        <v>22308</v>
       </c>
       <c r="C202">
-        <v>450.2479434177191</v>
+        <v>439.3737857566936</v>
       </c>
       <c r="D202">
-        <v>421.6725993869832</v>
+        <v>410.7553710095476</v>
       </c>
       <c r="E202">
-        <v>477.5961160315334</v>
+        <v>468.7256471285982</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3829,16 +3829,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="2">
-        <v>22339</v>
+        <v>22309</v>
       </c>
       <c r="C203">
-        <v>454.2042090578993</v>
+        <v>442.3333373766498</v>
       </c>
       <c r="D203">
-        <v>423.9170565142941</v>
+        <v>412.3158744074465</v>
       </c>
       <c r="E203">
-        <v>482.5773061089519</v>
+        <v>471.0226090765734</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3846,16 +3846,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="2">
-        <v>22340</v>
+        <v>22310</v>
       </c>
       <c r="C204">
-        <v>458.6291232463579</v>
+        <v>445.9400957469456</v>
       </c>
       <c r="D204">
-        <v>430.3471046755055</v>
+        <v>415.5893982981241</v>
       </c>
       <c r="E204">
-        <v>488.8710344781607</v>
+        <v>474.8107254845167</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3863,16 +3863,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="2">
-        <v>22341</v>
+        <v>22311</v>
       </c>
       <c r="C205">
-        <v>463.455415475609</v>
+        <v>450.1415563972532</v>
       </c>
       <c r="D205">
-        <v>435.972078598899</v>
+        <v>422.3746284904918</v>
       </c>
       <c r="E205">
-        <v>493.8420778481777</v>
+        <v>480.1541443112711</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3880,16 +3880,16 @@
         <v>204</v>
       </c>
       <c r="B206" s="2">
-        <v>22342</v>
+        <v>22312</v>
       </c>
       <c r="C206">
-        <v>468.6074625085349</v>
+        <v>454.8723755241783</v>
       </c>
       <c r="D206">
-        <v>442.1486239090956</v>
+        <v>424.426311818517</v>
       </c>
       <c r="E206">
-        <v>498.2669468963018</v>
+        <v>482.8538687081057</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3897,16 +3897,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="2">
-        <v>22343</v>
+        <v>22313</v>
       </c>
       <c r="C207">
-        <v>474.0030633994059</v>
+        <v>460.0559414776536</v>
       </c>
       <c r="D207">
-        <v>444.5743791882722</v>
+        <v>432.3293440049941</v>
       </c>
       <c r="E207">
-        <v>503.4675625104908</v>
+        <v>489.1641370195424</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3914,16 +3914,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="2">
-        <v>22344</v>
+        <v>22314</v>
       </c>
       <c r="C208">
-        <v>479.5553274580657</v>
+        <v>465.606175315841</v>
       </c>
       <c r="D208">
-        <v>451.4581083676236</v>
+        <v>433.8567519186601</v>
       </c>
       <c r="E208">
-        <v>506.7008247737874</v>
+        <v>496.5059362339073</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3931,16 +3931,16 @@
         <v>207</v>
       </c>
       <c r="B209" s="2">
-        <v>22345</v>
+        <v>22315</v>
       </c>
       <c r="C209">
-        <v>485.1746264744421</v>
+        <v>471.4295131401145</v>
       </c>
       <c r="D209">
-        <v>456.4349667182004</v>
+        <v>441.6688184416658</v>
       </c>
       <c r="E209">
-        <v>515.4140400351741</v>
+        <v>500.0897662279364</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3948,16 +3948,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="2">
-        <v>22346</v>
+        <v>22316</v>
       </c>
       <c r="C210">
-        <v>490.7705621930394</v>
+        <v>477.4270195683677</v>
       </c>
       <c r="D210">
-        <v>462.5326678652393</v>
+        <v>447.9218726178666</v>
       </c>
       <c r="E210">
-        <v>520.4285995910611</v>
+        <v>506.1843866545469</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3965,16 +3965,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="2">
-        <v>22347</v>
+        <v>22317</v>
       </c>
       <c r="C211">
-        <v>496.2539010022223</v>
+        <v>483.4965797133129</v>
       </c>
       <c r="D211">
-        <v>467.5620174170637</v>
+        <v>456.2465698304584</v>
       </c>
       <c r="E211">
-        <v>524.4899132292687</v>
+        <v>512.0633416472591</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3982,16 +3982,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="2">
-        <v>22348</v>
+        <v>22318</v>
       </c>
       <c r="C212">
-        <v>501.5384300231653</v>
+        <v>489.5351164234685</v>
       </c>
       <c r="D212">
-        <v>473.2357525069471</v>
+        <v>459.9130724572437</v>
       </c>
       <c r="E212">
-        <v>529.8573141054723</v>
+        <v>516.1141357914199</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -3999,16 +3999,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="2">
-        <v>22349</v>
+        <v>22319</v>
       </c>
       <c r="C213">
-        <v>506.5426921572971</v>
+        <v>495.4407803012347</v>
       </c>
       <c r="D213">
-        <v>478.1806533745003</v>
+        <v>467.6562282585996</v>
       </c>
       <c r="E213">
-        <v>536.8688682777944</v>
+        <v>525.6206120555751</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4016,16 +4016,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="2">
-        <v>22350</v>
+        <v>22320</v>
       </c>
       <c r="C214">
-        <v>511.1915620577087</v>
+        <v>501.1150620818855</v>
       </c>
       <c r="D214">
-        <v>483.2705282167673</v>
+        <v>471.993548731125</v>
       </c>
       <c r="E214">
-        <v>540.9531190911657</v>
+        <v>530.4380000195846</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4033,16 +4033,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="2">
-        <v>22351</v>
+        <v>22321</v>
       </c>
       <c r="C215">
-        <v>515.4176302815897</v>
+        <v>506.4647802521372</v>
       </c>
       <c r="D215">
-        <v>486.4973296041965</v>
+        <v>478.861590494761</v>
       </c>
       <c r="E215">
-        <v>545.3667476862158</v>
+        <v>535.7353503553929</v>
       </c>
     </row>
   </sheetData>
